--- a/todolist.xlsx
+++ b/todolist.xlsx
@@ -366,8 +366,8 @@
   </sheetPr>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -433,15 +433,12 @@
       <c r="D3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="G3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="1" t="e">
         <f aca="false">F3/(F3+G3)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -454,21 +451,15 @@
       <c r="D4" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="1" t="e">
         <f aca="false">F4/(F4+G4)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" s="1" t="n">
+      <c r="H5" s="1" t="e">
         <f aca="false">F5/(F5+G5)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -481,12 +472,9 @@
       <c r="D6" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="H6" s="1" t="n">
+      <c r="H6" s="1" t="e">
         <f aca="false">F6/(F6+G6)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -499,12 +487,9 @@
       <c r="D7" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H7" s="1" t="n">
+      <c r="H7" s="1" t="e">
         <f aca="false">F7/(F7+G7)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -517,12 +502,9 @@
       <c r="D8" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="H8" s="1" t="n">
+      <c r="H8" s="1" t="e">
         <f aca="false">F8/(F8+G8)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -535,24 +517,18 @@
       <c r="D9" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="0" t="n">
-        <v>8</v>
-      </c>
       <c r="G9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="1" t="n">
+      <c r="H9" s="1" t="e">
         <f aca="false">F9/(F9+G9)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F10" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="H10" s="1" t="n">
+      <c r="H10" s="1" t="e">
         <f aca="false">F10/(F10+G10)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -574,30 +550,21 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F12" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="H12" s="1" t="n">
+      <c r="H12" s="1" t="e">
         <f aca="false">F12/(F12+G12)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F13" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="H13" s="1" t="n">
+      <c r="H13" s="1" t="e">
         <f aca="false">F13/(F13+G13)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="H14" s="1" t="n">
+      <c r="H14" s="1" t="e">
         <f aca="false">F14/(F14+G14)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -613,15 +580,15 @@
       <c r="D15" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="H15" s="1" t="n">
+      <c r="H15" s="1" t="e">
         <f aca="false">F15/(F15+G15)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="F16" s="0" t="n">
         <v>15</v>
       </c>
@@ -640,8 +607,14 @@
       <c r="D17" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="E17" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="F17" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="H17" s="1" t="n">
         <f aca="false">F17/(F17+G17)</f>
@@ -658,30 +631,24 @@
       <c r="D18" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="H18" s="1" t="n">
+      <c r="G18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="e">
         <f aca="false">F18/(F18+G18)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F19" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="H19" s="1" t="n">
+      <c r="H19" s="1" t="e">
         <f aca="false">F19/(F19+G19)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="H20" s="1" t="n">
+      <c r="H20" s="1" t="e">
         <f aca="false">F20/(F20+G20)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -697,21 +664,15 @@
       <c r="D21" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="H21" s="1" t="n">
+      <c r="H21" s="1" t="e">
         <f aca="false">F21/(F21+G21)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F22" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="H22" s="1" t="n">
+      <c r="H22" s="1" t="e">
         <f aca="false">F22/(F22+G22)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -727,21 +688,15 @@
       <c r="D23" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="H23" s="1" t="n">
+      <c r="H23" s="1" t="e">
         <f aca="false">F23/(F23+G23)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F24" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="H24" s="1" t="n">
+      <c r="H24" s="1" t="e">
         <f aca="false">F24/(F24+G24)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -754,39 +709,27 @@
       <c r="D25" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="H25" s="1" t="n">
+      <c r="H25" s="1" t="e">
         <f aca="false">F25/(F25+G25)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F26" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="H26" s="1" t="n">
+      <c r="H26" s="1" t="e">
         <f aca="false">F26/(F26+G26)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F27" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="H27" s="1" t="n">
+      <c r="H27" s="1" t="e">
         <f aca="false">F27/(F27+G27)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F28" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="H28" s="1" t="n">
+      <c r="H28" s="1" t="e">
         <f aca="false">F28/(F28+G28)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -799,12 +742,9 @@
       <c r="C29" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="H29" s="1" t="n">
+      <c r="H29" s="1" t="e">
         <f aca="false">F29/(F29+G29)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -817,12 +757,9 @@
       <c r="C30" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="H30" s="1" t="n">
+      <c r="H30" s="1" t="e">
         <f aca="false">F30/(F30+G30)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -835,12 +772,9 @@
       <c r="C31" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="H31" s="1" t="n">
+      <c r="H31" s="1" t="e">
         <f aca="false">F31/(F31+G31)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
